--- a/data/call/callReason.xlsx
+++ b/data/call/callReason.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C&amp;S Data Pipeline\Processed data\call\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A966987-781A-4798-A2FE-347154840EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126C15C-1E8C-4CB0-A62F-40A2895F494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="callReason" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>callReason</t>
   </si>
@@ -71,6 +82,66 @@
   </si>
   <si>
     <t>استفسار عن تسليم اوردر</t>
+  </si>
+  <si>
+    <t>ابلاغ موعد سحب</t>
+  </si>
+  <si>
+    <t>استفسار عن تسليم شكوى</t>
+  </si>
+  <si>
+    <t>ابلاغ موعد تسليم</t>
+  </si>
+  <si>
+    <t>استفسار عن ارتجاع اوردر</t>
+  </si>
+  <si>
+    <t>استفسار عن سحب شكوي</t>
+  </si>
+  <si>
+    <t>استفسار عن موعد زيارة الفني</t>
+  </si>
+  <si>
+    <t>استفسار عن نتيجة تقرير</t>
+  </si>
+  <si>
+    <t>تغيير /استبدال برغبة عميل</t>
+  </si>
+  <si>
+    <t>استفسار عن ارقام يانسن</t>
+  </si>
+  <si>
+    <t>استفسار عن الانواع / الاسعار</t>
+  </si>
+  <si>
+    <t>استفسار عن رقم الواتس اب</t>
+  </si>
+  <si>
+    <t>استفسار عن انجلندر</t>
+  </si>
+  <si>
+    <t>ارتجاع خلال 14 يوم</t>
+  </si>
+  <si>
+    <t>استفسار عن المعارض / الوكلاء</t>
+  </si>
+  <si>
+    <t>استفسار عن ميعاد البدل</t>
+  </si>
+  <si>
+    <t>تعاقد جديد (كاش)</t>
+  </si>
+  <si>
+    <t>مشاكل بالمترية</t>
+  </si>
+  <si>
+    <t>غير مصنف</t>
+  </si>
+  <si>
+    <t>متابعه طلب الوكاله (الجدد)</t>
+  </si>
+  <si>
+    <t>ابلاغ</t>
   </si>
 </sst>
 </file>
@@ -472,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,6 +682,166 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/call/callReason.xlsx
+++ b/data/call/callReason.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C&amp;S Data Pipeline\Processed data\call\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126C15C-1E8C-4CB0-A62F-40A2895F494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA57D8-6D24-404F-A015-E36AE3CCF03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="6120" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="callReason" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>callReason</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>ابلاغ</t>
+  </si>
+  <si>
+    <t>متابعة طلب صيانة</t>
+  </si>
+  <si>
+    <t>متابعه شكوى</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -842,7 +848,40 @@
         <v>35</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>